--- a/data-raw/correspondencia_mun_terr_desenvol.xlsx
+++ b/data-raw/correspondencia_mun_terr_desenvol.xlsx
@@ -33315,8 +33315,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -33341,6 +33341,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -33420,6 +33421,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -33586,13 +33592,12 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{395A9E6B-A4BA-4BFE-A4F8-C03B8400A4D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8C0AA2-9E68-4140-BFD0-272FB9DEEFDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data-raw/correspondencia_mun_terr_desenvol.xlsx
+++ b/data-raw/correspondencia_mun_terr_desenvol.xlsx
@@ -33315,8 +33315,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7797dc5feb179b4da55a9ebddd321181">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90078f443198b6d5c0fd169535a443b9" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -33342,6 +33342,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -33424,6 +33425,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -33597,7 +33603,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C8C0AA2-9E68-4140-BFD0-272FB9DEEFDB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27BBA623-37E5-4AD4-BD04-0304867D10B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
